--- a/actividad01_mixta.xlsx
+++ b/actividad01_mixta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16665" windowHeight="8070" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16665" windowHeight="8070" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tipos" sheetId="4" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Rangos" sheetId="5" r:id="rId3"/>
     <sheet name="referencia dinamica" sheetId="6" r:id="rId4"/>
     <sheet name="referencia absoluta" sheetId="7" r:id="rId5"/>
+    <sheet name="referencia mixta" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Nombres" comment="Lista de nombres de usuarios">Rangos!$A$18:$A$22</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>cociente</t>
   </si>
@@ -41,9 +42,6 @@
     <t>sientifico * 10 elevado a la 15</t>
   </si>
   <si>
-    <t>fracccionarea</t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
@@ -129,6 +127,42 @@
   </si>
   <si>
     <t>promedio</t>
+  </si>
+  <si>
+    <t>numerico</t>
+  </si>
+  <si>
+    <t>hola</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>texto</t>
+  </si>
+  <si>
+    <t>=A13-A12</t>
+  </si>
+  <si>
+    <t>=1/4</t>
+  </si>
+  <si>
+    <t>0 1/4 - fracccionarea</t>
+  </si>
+  <si>
+    <t>calificacion</t>
+  </si>
+  <si>
+    <t>add1</t>
+  </si>
+  <si>
+    <t>add2</t>
+  </si>
+  <si>
+    <t>add3</t>
+  </si>
+  <si>
+    <t>porcentaje</t>
   </si>
 </sst>
 </file>
@@ -147,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,12 +197,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,28 +219,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="12" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,200 +544,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10">
+      <c r="A1" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>41255</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="B7" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>43446</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>43447</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>43447</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>43288</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>43288</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>4.2372685185185187E-2</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <f>A13-A12</f>
+        <v>1.1574074074080509E-5</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>41255.508472222224</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>0.51736111111111105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>4.2361111111111106E-2</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>4.2372685185185187E-2</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <f>A7-A6</f>
-        <v>1.1574074074080509E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>41255.508472222224</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="b">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="b">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="b">
+      <c r="B17" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="b">
         <f>1&gt;0</f>
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="b">
+      <c r="B18" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="b">
         <f>1&lt;0</f>
         <v>0</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="b">
+      <c r="B19" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="b">
         <f>5/16=0.3</f>
         <v>0</v>
       </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="B20" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <f>1/4</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="B21" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="B22" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <f>123^10</f>
         <v>7.9259460960518917E+20</v>
       </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>1111111111111110</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>1234567891234560</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B25" s="7">
         <f>1.23457*(10^15)</f>
         <v>1234570000000000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
         <v>500</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
         <v>500</v>
       </c>
+      <c r="B30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -736,7 +821,7 @@
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="17">
+      <c r="D1" s="5">
         <v>6</v>
       </c>
       <c r="F1" s="1">
@@ -751,7 +836,7 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="5">
         <v>3</v>
       </c>
       <c r="F2" s="1">
@@ -766,7 +851,7 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="F3" s="1">
@@ -781,7 +866,7 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="5">
         <f>(D1+D2)/D3</f>
         <v>4.5</v>
       </c>
@@ -801,7 +886,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="5">
         <f>((3+6)/2+(4+2)^2)*(2+3-1)/2</f>
         <v>81</v>
       </c>
@@ -899,72 +984,72 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="4">
         <v>1</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="4">
         <f>SUM(A12:B12)</f>
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="4">
         <v>4</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="4">
         <f>SUM(A12:A13)</f>
         <v>4</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="4">
         <f>SUM(B12:B13)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -985,27 +1070,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
       <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1026,7 +1111,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1047,7 +1132,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1068,7 +1153,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1089,7 +1174,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1106,7 +1191,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1123,7 +1208,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1140,7 +1225,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1162,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,27 +1260,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1214,13 +1299,13 @@
         <v>7.666666666666667</v>
       </c>
       <c r="G2">
-        <f>F2*$C$13</f>
+        <f>F2*$G$10</f>
         <v>0.76666666666666672</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1239,13 +1324,13 @@
         <v>7.833333333333333</v>
       </c>
       <c r="G3">
-        <f>F3*$C$13</f>
+        <f>F3*$G$10</f>
         <v>0.78333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1264,13 +1349,13 @@
         <v>7.666666666666667</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G9" si="1">F4*$C$13</f>
+        <f>F4*$G$10</f>
         <v>0.76666666666666672</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1289,13 +1374,13 @@
         <v>7.333333333333333</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f>F5*$G$10</f>
         <v>0.73333333333333339</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1314,13 +1399,13 @@
         <v>7.333333333333333</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f>F6*$G$10</f>
         <v>0.73333333333333339</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1339,13 +1424,13 @@
         <v>8</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f>F7*$G$10</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1364,13 +1449,13 @@
         <v>7.333333333333333</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f>F8*$G$10</f>
         <v>0.73333333333333339</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1389,8 +1474,13 @@
         <v>9.6666666666666661</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f>F9*$G$10</f>
         <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="6">
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1411,9 +1501,361 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="18">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <f>(C2+D2+E2)/3</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="G2">
+        <f>F2*$G$10</f>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="H2">
+        <f>$F2+H$10</f>
+        <v>7.9666666666666668</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:J2" si="0">$F2+I$10</f>
+        <v>8.1666666666666679</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>8.3666666666666671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>8.5</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="1">(C3+D3+E3)/3</f>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="G3">
+        <f>F3*$G$10</f>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:J9" si="2">$F3+H$10</f>
+        <v>8.1333333333333329</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="2"/>
+        <v>8.5333333333333332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="G4">
+        <f>F4*$G$10</f>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>7.9666666666666668</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>8.1666666666666679</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>8.3666666666666671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="G5">
+        <f>F5*$G$10</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>7.6333333333333329</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="G6">
+        <f>F6*$G$10</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>7.6333333333333329</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <f>F7*$G$10</f>
+        <v>0.8</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="G8">
+        <f>F8*$G$10</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>7.6333333333333329</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="G9">
+        <f>F9*$G$10</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>9.9666666666666668</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>10.366666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="6">
         <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>0.3</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
